--- a/python/package/plot/data/Tik Tok Advertisement Review_Clean list _Update 1.xlsx
+++ b/python/package/plot/data/Tik Tok Advertisement Review_Clean list _Update 1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="230">
   <si>
     <t xml:space="preserve">Brand</t>
   </si>
@@ -263,12 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://ads.tiktok.com/business/creativecenter/topads/7359528010117283848?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ads.tiktok.com/business/creativecenter/topads/7355497847435296784?</t>
   </si>
   <si>
     <t xml:space="preserve">Hellmann's</t>
@@ -858,10 +852,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,22 +1487,22 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.057</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>65</v>
@@ -1516,22 +1510,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>65</v>
@@ -1539,22 +1533,22 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="F30" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>65</v>
@@ -1562,22 +1556,22 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>65</v>
@@ -1585,22 +1579,22 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>12</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>65</v>
@@ -1608,22 +1602,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>65</v>
@@ -1631,22 +1625,22 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.32</v>
+        <v>0.287</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>65</v>
@@ -1654,22 +1648,22 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.287</v>
+        <v>0.229</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>65</v>
@@ -1677,22 +1671,22 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.229</v>
+        <v>0.073</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>65</v>
@@ -1700,22 +1694,22 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0.073</v>
+        <v>0.054</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>95</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>65</v>
@@ -1723,68 +1717,68 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.054</v>
+        <v>417</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>417</v>
+        <v>0.338</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="G39" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.338</v>
+        <v>369</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>18</v>
@@ -1792,22 +1786,22 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>245</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="3" t="n">
-        <v>369</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="E41" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="F41" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>18</v>
@@ -1815,183 +1809,183 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>181</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B42" s="3" t="n">
-        <v>245</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>110</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="3" t="n">
-        <v>181</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="E43" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="3" t="n">
-        <v>119</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="E44" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="F44" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="3" t="n">
-        <v>63</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="E45" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B46" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>117</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="F47" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B48" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>120</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="F49" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>18</v>
@@ -1999,76 +1993,76 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="E50" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="E51" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B52" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>125</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="3" t="n">
         <v>5</v>
@@ -2077,21 +2071,21 @@
         <v>126</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>127</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" s="3" t="n">
         <v>5</v>
@@ -2100,44 +2094,44 @@
         <v>128</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>129</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>5</v>
+        <v>104</v>
+      </c>
+      <c r="B55" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>131</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>4</v>
@@ -2146,13 +2140,13 @@
         <v>132</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>133</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>18</v>
@@ -2160,22 +2154,22 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>135</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>18</v>
@@ -2183,22 +2177,22 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B58" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>137</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>18</v>
@@ -2206,22 +2200,22 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="3" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="F59" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>18</v>
@@ -2229,22 +2223,22 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="3" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="E60" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>18</v>
@@ -2252,22 +2246,22 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>141</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>18</v>
@@ -2275,68 +2269,68 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0.204</v>
+        <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>143</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>203</v>
+        <v>1000</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1000</v>
+        <v>404</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="D64" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>150</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>12</v>
@@ -2347,42 +2341,42 @@
         <v>151</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B66" s="3" t="n">
         <v>202</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>107</v>
+      <c r="C66" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>18</v>
@@ -2390,183 +2384,183 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>202</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>107</v>
+        <v>164</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>155</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>157</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="3" t="n">
+        <v>151</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G69" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B70" s="5" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71" s="5" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="G71" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B72" s="5" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>163</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E74" s="0" t="s">
         <v>165</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>18</v>
@@ -2574,22 +2568,22 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="F75" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>18</v>
@@ -2597,22 +2591,22 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>18</v>
@@ -2620,206 +2614,206 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="B77" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="3" t="n">
-        <v>11</v>
+        <v>151</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B79" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="B80" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="3" t="n">
+        <v>151</v>
+      </c>
+      <c r="B81" s="5" t="n">
         <v>5</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B82" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" s="5" t="n">
-        <v>3</v>
+        <v>151</v>
+      </c>
+      <c r="B83" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>14</v>
+        <v>0.118</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>0.118</v>
+        <v>0.073</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E85" s="0" t="s">
         <v>177</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>65</v>
@@ -2827,45 +2821,45 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" s="3" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="C86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="5" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>179</v>
-      </c>
       <c r="F86" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B87" s="5" t="n">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>180</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>18</v>
@@ -2873,22 +2867,22 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B88" s="5" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="C88" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="3" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>182</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>18</v>
@@ -2896,22 +2890,22 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="3" t="n">
-        <v>0.013</v>
+        <v>151</v>
+      </c>
+      <c r="B89" s="5" t="n">
+        <v>0.005</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="F89" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>18</v>
@@ -2919,22 +2913,22 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B90" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="B90" s="3" t="n">
         <v>0.005</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>18</v>
@@ -2942,22 +2936,22 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>0.005</v>
+        <v>21</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>18</v>
@@ -2965,22 +2959,22 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D92" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="F92" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>18</v>
@@ -2988,22 +2982,22 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>18</v>
@@ -3011,22 +3005,22 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>18</v>
@@ -3034,22 +3028,22 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>18</v>
@@ -3057,22 +3051,22 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>18</v>
@@ -3080,22 +3074,22 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B97" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>18</v>
@@ -3103,22 +3097,22 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>2</v>
+        <v>0.22</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E98" s="0" t="s">
         <v>195</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>18</v>
@@ -3126,22 +3120,22 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>0.22</v>
+        <v>0.045</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E99" s="0" t="s">
         <v>197</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>18</v>
@@ -3149,68 +3143,68 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>0.045</v>
+        <v>1000</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>1000</v>
+        <v>489</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>12</v>
@@ -3218,234 +3212,212 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>534</v>
+        <v>642</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E103" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F103" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="G103" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>642</v>
+        <v>1000</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="B105" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>71</v>
+        <v>219</v>
+      </c>
+      <c r="B105" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E105" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="F105" s="0" t="s">
-        <v>220</v>
-      </c>
       <c r="G105" s="0" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B106" s="5" t="n">
-        <v>2</v>
+        <v>0.264</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>223</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B107" s="5" t="n">
-        <v>0.264</v>
+        <v>0.219</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="F107" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B108" s="5" t="n">
-        <v>0.219</v>
+        <v>0.154</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B109" s="5" t="n">
-        <v>0.154</v>
+        <v>0.099</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B110" s="5" t="n">
-        <v>0.099</v>
+        <v>0.09</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>228</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B111" s="5" t="n">
-        <v>0.09</v>
+        <v>0.073</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>230</v>
-      </c>
       <c r="F111" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" s="5" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="F112" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="G112" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
